--- a/Jadwal Kuliah.xlsx
+++ b/Jadwal Kuliah.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F8A1B-32B1-4BDA-AA12-5FD9EFD4F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637CCDDB-E44C-4758-BDC1-86453524FE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{2666B484-2239-40D8-8AAE-D7B3F3606822}"/>
   </bookViews>
@@ -327,10 +327,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,27 +350,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -527,6 +610,19 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -541,15 +637,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D1AD303-F345-4028-B0F9-7C117B898763}" name="Table1" displayName="Table1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:G11" xr:uid="{5D1AD303-F345-4028-B0F9-7C117B898763}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D1AD303-F345-4028-B0F9-7C117B898763}" name="Table1" displayName="Table1" ref="B2:G11" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="B2:G11" xr:uid="{5D1AD303-F345-4028-B0F9-7C117B898763}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5CAC9943-DB04-4F9F-B22D-CC5212D20701}" name="NO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{DA5A8BD6-2F46-497A-8AFE-7CA8B2615F5B}" name="Mata Kuliah" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8B7061D2-8FBB-41F4-9556-795DCDC95B1A}" name="Hari" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{D266D136-4A24-405D-BADB-A3BBC82B398D}" name="Tanggal" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2C3C2468-C4F8-43EF-9F5A-6CEA782874A3}" name="Jam" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B98ABE41-E83B-4236-9415-4CE852411273}" name="Ruang" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5CAC9943-DB04-4F9F-B22D-CC5212D20701}" name="NO" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DA5A8BD6-2F46-497A-8AFE-7CA8B2615F5B}" name="Mata Kuliah" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8B7061D2-8FBB-41F4-9556-795DCDC95B1A}" name="Hari" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D266D136-4A24-405D-BADB-A3BBC82B398D}" name="Tanggal" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2C3C2468-C4F8-43EF-9F5A-6CEA782874A3}" name="Jam" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B98ABE41-E83B-4236-9415-4CE852411273}" name="Ruang" totalsRowFunction="count" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,7 +958,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,202 +972,202 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
